--- a/Schließfächer_new.xlsx
+++ b/Schließfächer_new.xlsx
@@ -5,21 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUGGGI\OneDrive - bwedu\projects\Schliessfaecher\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/beck_lukas_bwedu_de/Documents/projects/Locker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9D22AC-938D-4919-AD9F-7E0603DEEACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_3BE126C9237E844F7648572D9FFA195066CF9D47" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{704235E0-D720-4A74-A24D-0B21CE70172A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A96DA2A5-27F3-40C3-9DB7-B6CEE18BD0AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,7 +33,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="531">
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>since</t>
+  </si>
+  <si>
+    <t>extended</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>collateral</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>keys</t>
+  </si>
+  <si>
+    <t>rented</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>revoked</t>
+  </si>
+  <si>
+    <t>cleared</t>
+  </si>
   <si>
     <t>Annika Kaupp</t>
   </si>
@@ -89,6 +125,12 @@
     <t>uni@h-eckardt.com</t>
   </si>
   <si>
+    <t>Mirhan Efe Kamaci</t>
+  </si>
+  <si>
+    <t>mirhan.kamaci@gmail.com</t>
+  </si>
+  <si>
     <t>Frederike Andriof</t>
   </si>
   <si>
@@ -107,6 +149,12 @@
     <t>klemmt etwas</t>
   </si>
   <si>
+    <t>Lukas Fink</t>
+  </si>
+  <si>
+    <t>lukas.fink1@gmail.com</t>
+  </si>
+  <si>
     <t>Kein Schlüssel (beide waren ausgegeben)</t>
   </si>
   <si>
@@ -218,12 +266,12 @@
     <t>Rico Reineke</t>
   </si>
   <si>
+    <t>rico.reineke@outlook.com</t>
+  </si>
+  <si>
     <t>hääää? Eigentlich nr 163?</t>
   </si>
   <si>
-    <t>rico.reineke@outlook.com</t>
-  </si>
-  <si>
     <t>Andreas Götz</t>
   </si>
   <si>
@@ -764,6 +812,12 @@
     <t>patrick.s.mauer@gmx.de</t>
   </si>
   <si>
+    <t>Annika Heilig</t>
+  </si>
+  <si>
+    <t>heilig.annika@gmx.de</t>
+  </si>
+  <si>
     <t>Daniel Geib</t>
   </si>
   <si>
@@ -1572,45 +1626,6 @@
   </si>
   <si>
     <t>leonhardgrosse@web.de</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>since</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>collateral</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>keys</t>
-  </si>
-  <si>
-    <t>rented</t>
-  </si>
-  <si>
-    <t>fs</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>revoked</t>
-  </si>
-  <si>
-    <t>cleared</t>
-  </si>
-  <si>
-    <t>extended</t>
   </si>
 </sst>
 </file>
@@ -2204,7 +2219,56 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2563,61 +2627,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4743E9B0-5BF3-48AD-A9D1-72C917EE3159}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M409"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G189" sqref="G189"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S198" sqref="S198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="34.88671875" customWidth="1"/>
-    <col min="3" max="4" width="10.6640625" style="147" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" style="147" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
-    <col min="7" max="7" width="70.33203125" customWidth="1"/>
+    <col min="7" max="7" width="70.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="126" t="s">
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>513</v>
+        <v>1</v>
       </c>
       <c r="C1" s="127" t="s">
-        <v>514</v>
+        <v>2</v>
       </c>
       <c r="D1" s="127" t="s">
-        <v>524</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>515</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>516</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>517</v>
+        <v>6</v>
       </c>
       <c r="H1" s="124" t="s">
-        <v>518</v>
+        <v>7</v>
       </c>
       <c r="I1" s="125" t="s">
-        <v>519</v>
+        <v>8</v>
       </c>
       <c r="J1" s="124" t="s">
-        <v>520</v>
+        <v>9</v>
       </c>
       <c r="K1" s="124" t="s">
-        <v>521</v>
+        <v>10</v>
       </c>
       <c r="L1" s="125" t="s">
-        <v>522</v>
+        <v>11</v>
       </c>
       <c r="M1" s="125" t="s">
-        <v>523</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2625,20 +2689,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C2" s="128">
         <v>43887</v>
       </c>
       <c r="D2" s="128"/>
       <c r="E2" s="5" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F2" s="6">
         <v>25</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H2" s="8">
         <v>1</v>
@@ -2658,7 +2722,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C3" s="129">
         <v>43887</v>
@@ -2667,7 +2731,7 @@
         <v>44457</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F3" s="13">
         <v>50</v>
@@ -2691,7 +2755,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C4" s="129">
         <v>43887</v>
@@ -2700,10 +2764,10 @@
         <v>44457</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="15">
@@ -2724,20 +2788,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C5" s="130">
         <v>39237</v>
       </c>
       <c r="D5" s="130"/>
       <c r="E5" s="19" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F5" s="20">
         <v>25</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="H5" s="22">
         <v>1</v>
@@ -2755,7 +2819,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C6" s="128">
         <v>44672</v>
@@ -2764,7 +2828,7 @@
         <v>44700</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F6" s="6">
         <v>50</v>
@@ -2788,7 +2852,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C7" s="129">
         <v>43755</v>
@@ -2797,7 +2861,7 @@
         <v>44457</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F7" s="13">
         <v>50</v>
@@ -2821,7 +2885,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C8" s="129">
         <v>42027</v>
@@ -2830,7 +2894,7 @@
         <v>44457</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F8" s="13">
         <v>25</v>
@@ -2877,7 +2941,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C10" s="129">
         <v>43127</v>
@@ -2886,7 +2950,7 @@
         <v>44457</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F10" s="13">
         <v>50</v>
@@ -2929,7 +2993,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C12" s="129">
         <v>42027</v>
@@ -2938,7 +3002,7 @@
         <v>44457</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F12" s="13">
         <v>25</v>
@@ -2982,16 +3046,26 @@
       <c r="A14" s="25">
         <v>13</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="131"/>
+      <c r="B14" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="131">
+        <v>44897</v>
+      </c>
       <c r="D14" s="131"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
+      <c r="E14" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="27">
+        <v>50</v>
+      </c>
       <c r="G14" s="28"/>
       <c r="H14" s="29">
-        <v>1</v>
-      </c>
-      <c r="I14" s="29"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="29">
+        <v>1</v>
+      </c>
       <c r="J14" s="29"/>
       <c r="K14" s="30"/>
       <c r="L14" s="31">
@@ -3075,7 +3149,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C18" s="129">
         <v>43472</v>
@@ -3084,13 +3158,13 @@
         <v>44735</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F18" s="13">
         <v>25</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="H18" s="15">
         <v>1</v>
@@ -3110,7 +3184,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C19" s="129">
         <v>43862</v>
@@ -3119,13 +3193,13 @@
         <v>44455</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F19" s="13">
         <v>25</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H19" s="15">
         <v>1</v>
@@ -3144,17 +3218,29 @@
       <c r="A20" s="48">
         <v>19</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="134"/>
+      <c r="B20" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="134">
+        <v>44896</v>
+      </c>
       <c r="D20" s="134"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="50"/>
+      <c r="E20" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="50">
+        <v>50</v>
+      </c>
       <c r="G20" s="51"/>
       <c r="H20" s="52">
-        <v>1</v>
-      </c>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="52">
+        <v>1</v>
+      </c>
+      <c r="J20" s="52">
+        <v>1</v>
+      </c>
       <c r="K20" s="53"/>
       <c r="L20" s="54"/>
       <c r="M20" s="54"/>
@@ -3169,7 +3255,7 @@
       <c r="E21" s="56"/>
       <c r="F21" s="57"/>
       <c r="G21" s="58" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H21" s="15">
         <v>0</v>
@@ -3187,19 +3273,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="59" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C22" s="136" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D22" s="129">
         <v>44457</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="15">
@@ -3243,16 +3329,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C24" s="129" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D24" s="129">
         <v>44700</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F24" s="13">
         <v>50</v>
@@ -3364,7 +3450,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C29" s="129">
         <v>43763</v>
@@ -3373,7 +3459,7 @@
         <v>44704</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F29" s="13">
         <v>25</v>
@@ -3397,14 +3483,14 @@
         <v>29</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C30" s="131" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D30" s="131"/>
       <c r="E30" s="26" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F30" s="27">
         <v>25</v>
@@ -3449,7 +3535,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C32" s="129">
         <v>43069</v>
@@ -3458,7 +3544,7 @@
         <v>44457</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F32" s="13">
         <v>50</v>
@@ -3505,16 +3591,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C34" s="128" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D34" s="128">
         <v>44457</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F34" s="6">
         <v>50</v>
@@ -3718,7 +3804,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C43" s="128">
         <v>44508</v>
@@ -3727,7 +3813,7 @@
         <v>44735</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="F43" s="6">
         <v>50</v>
@@ -3793,7 +3879,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C46" s="129">
         <v>43266</v>
@@ -3802,7 +3888,7 @@
         <v>44700</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F46" s="13">
         <v>50</v>
@@ -3895,7 +3981,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C50" s="129">
         <v>43283</v>
@@ -3904,7 +3990,7 @@
         <v>44704</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="F50" s="13">
         <v>50</v>
@@ -3956,7 +4042,7 @@
       <c r="E52" s="33"/>
       <c r="F52" s="34"/>
       <c r="G52" s="35" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="H52" s="36">
         <v>2</v>
@@ -4056,16 +4142,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="63" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C57" s="137" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D57" s="137">
         <v>44700</v>
       </c>
       <c r="E57" s="63" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="F57" s="64">
         <v>25</v>
@@ -4087,7 +4173,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C58" s="129">
         <v>43755</v>
@@ -4096,7 +4182,7 @@
         <v>44457</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F58" s="13">
         <v>50</v>
@@ -4189,7 +4275,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C62" s="129">
         <v>43483</v>
@@ -4198,7 +4284,7 @@
         <v>44457</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F62" s="13">
         <v>50</v>
@@ -4222,7 +4308,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="49" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C63" s="134"/>
       <c r="D63" s="134"/>
@@ -4254,7 +4340,7 @@
       <c r="E64" s="56"/>
       <c r="F64" s="57"/>
       <c r="G64" s="58" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="H64" s="15">
         <v>1</v>
@@ -4333,7 +4419,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C68" s="129">
         <v>43566</v>
@@ -4342,7 +4428,7 @@
         <v>44457</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F68" s="13">
         <v>50</v>
@@ -4389,7 +4475,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C70" s="129">
         <v>43853</v>
@@ -4398,7 +4484,7 @@
         <v>44457</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F70" s="13">
         <v>25</v>
@@ -4446,7 +4532,7 @@
       <c r="E72" s="56"/>
       <c r="F72" s="57"/>
       <c r="G72" s="58" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="H72" s="15">
         <v>0</v>
@@ -4469,7 +4555,7 @@
       <c r="E73" s="56"/>
       <c r="F73" s="57"/>
       <c r="G73" s="58" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="H73" s="15">
         <v>1</v>
@@ -4492,7 +4578,7 @@
       <c r="E74" s="56"/>
       <c r="F74" s="57"/>
       <c r="G74" s="58" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="H74" s="15">
         <v>0</v>
@@ -4538,7 +4624,7 @@
       <c r="E76" s="33"/>
       <c r="F76" s="34"/>
       <c r="G76" s="35" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="H76" s="36">
         <v>2</v>
@@ -4554,18 +4640,18 @@
         <v>76</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C77" s="131"/>
       <c r="D77" s="131">
         <v>44705</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="F77" s="27"/>
       <c r="G77" s="28" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="H77" s="29">
         <v>1</v>
@@ -4635,7 +4721,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="63" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C80" s="137">
         <v>44735</v>
@@ -4644,7 +4730,7 @@
         <v>44735</v>
       </c>
       <c r="E80" s="63" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="F80" s="64">
         <v>50</v>
@@ -4666,7 +4752,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C81" s="129">
         <v>43203</v>
@@ -4675,7 +4761,7 @@
         <v>44457</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="F81" s="13">
         <v>50</v>
@@ -4699,7 +4785,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C82" s="128">
         <v>44601</v>
@@ -4708,7 +4794,7 @@
         <v>44735</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="F82" s="6">
         <v>50</v>
@@ -4751,20 +4837,20 @@
         <v>83</v>
       </c>
       <c r="B84" s="63" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C84" s="137">
         <v>43872</v>
       </c>
       <c r="D84" s="137"/>
       <c r="E84" s="63" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="F84" s="64">
         <v>25</v>
       </c>
       <c r="G84" s="65" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="H84" s="15">
         <v>1</v>
@@ -4805,7 +4891,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C86" s="129">
         <v>43227</v>
@@ -4814,7 +4900,7 @@
         <v>44457</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="F86" s="13">
         <v>50</v>
@@ -4861,7 +4947,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C88" s="129">
         <v>43853</v>
@@ -4870,7 +4956,7 @@
         <v>44457</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F88" s="13">
         <v>25</v>
@@ -4917,7 +5003,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C90" s="129">
         <v>43645</v>
@@ -4926,7 +5012,7 @@
         <v>44457</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="F90" s="13">
         <v>50</v>
@@ -5218,9 +5304,7 @@
       <c r="H103" s="15">
         <v>1</v>
       </c>
-      <c r="I103" s="15">
-        <v>1</v>
-      </c>
+      <c r="I103" s="15"/>
       <c r="J103" s="15"/>
       <c r="K103" s="16"/>
       <c r="L103" s="17">
@@ -5262,9 +5346,7 @@
       <c r="H105" s="15">
         <v>1</v>
       </c>
-      <c r="I105" s="15">
-        <v>1</v>
-      </c>
+      <c r="I105" s="15"/>
       <c r="J105" s="15"/>
       <c r="K105" s="16"/>
       <c r="L105" s="17">
@@ -5390,16 +5472,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C111" s="129" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D111" s="129">
         <v>44457</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="F111" s="13">
         <v>50</v>
@@ -5469,20 +5551,20 @@
         <v>113</v>
       </c>
       <c r="B114" s="26" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C114" s="131" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D114" s="131"/>
       <c r="E114" s="26" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="F114" s="27">
         <v>25</v>
       </c>
       <c r="G114" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H114" s="29">
         <v>1</v>
@@ -5505,7 +5587,7 @@
       <c r="E115" s="49"/>
       <c r="F115" s="50"/>
       <c r="G115" s="51" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="H115" s="15">
         <v>1</v>
@@ -5521,7 +5603,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C116" s="128"/>
       <c r="D116" s="128"/>
@@ -5546,20 +5628,20 @@
         <v>116</v>
       </c>
       <c r="B117" s="26" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C117" s="131" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D117" s="131"/>
       <c r="E117" s="26" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F117" s="27">
         <v>25</v>
       </c>
       <c r="G117" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H117" s="29">
         <v>1</v>
@@ -5577,7 +5659,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C118" s="128"/>
       <c r="D118" s="128"/>
@@ -5602,20 +5684,20 @@
         <v>118</v>
       </c>
       <c r="B119" s="26" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C119" s="131" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D119" s="131"/>
       <c r="E119" s="26" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="F119" s="27">
         <v>25</v>
       </c>
       <c r="G119" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H119" s="29">
         <v>1</v>
@@ -5633,20 +5715,20 @@
         <v>119</v>
       </c>
       <c r="B120" s="26" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C120" s="131" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="D120" s="131"/>
       <c r="E120" s="26" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="F120" s="27">
         <v>25</v>
       </c>
       <c r="G120" s="28" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="H120" s="29">
         <v>1</v>
@@ -5664,20 +5746,20 @@
         <v>120</v>
       </c>
       <c r="B121" s="26" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="C121" s="131" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="D121" s="131"/>
       <c r="E121" s="26" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="F121" s="27">
         <v>25</v>
       </c>
       <c r="G121" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H121" s="29">
         <v>1</v>
@@ -5695,16 +5777,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="63" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="C122" s="137" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D122" s="137">
         <v>44700</v>
       </c>
       <c r="E122" s="63" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="F122" s="64">
         <v>25</v>
@@ -5726,20 +5808,20 @@
         <v>122</v>
       </c>
       <c r="B123" s="88" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C123" s="141" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="D123" s="141" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="E123" s="88" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="F123" s="89"/>
       <c r="G123" s="90" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="H123" s="91">
         <v>1</v>
@@ -5757,20 +5839,20 @@
         <v>123</v>
       </c>
       <c r="B124" s="26" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C124" s="131" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="D124" s="131"/>
       <c r="E124" s="26" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="F124" s="27">
         <v>25</v>
       </c>
       <c r="G124" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H124" s="29">
         <v>1</v>
@@ -5788,20 +5870,20 @@
         <v>124</v>
       </c>
       <c r="B125" s="26" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C125" s="131" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D125" s="131"/>
       <c r="E125" s="26" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="F125" s="27">
         <v>25</v>
       </c>
       <c r="G125" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H125" s="29">
         <v>1</v>
@@ -5819,20 +5901,20 @@
         <v>125</v>
       </c>
       <c r="B126" s="26" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C126" s="131" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D126" s="131"/>
       <c r="E126" s="26" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="F126" s="27">
         <v>25</v>
       </c>
       <c r="G126" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H126" s="29">
         <v>1</v>
@@ -5850,20 +5932,20 @@
         <v>126</v>
       </c>
       <c r="B127" s="80" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="C127" s="140" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D127" s="140"/>
       <c r="E127" s="80" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="F127" s="81">
         <v>25</v>
       </c>
       <c r="G127" s="82" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="H127" s="83">
         <v>1</v>
@@ -5881,20 +5963,20 @@
         <v>127</v>
       </c>
       <c r="B128" s="26" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C128" s="131" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="D128" s="131"/>
       <c r="E128" s="26" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="F128" s="27">
         <v>25</v>
       </c>
       <c r="G128" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H128" s="29">
         <v>1</v>
@@ -5912,18 +5994,18 @@
         <v>128</v>
       </c>
       <c r="B129" s="56" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="C129" s="135" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="D129" s="135"/>
       <c r="E129" s="56" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="F129" s="57"/>
       <c r="G129" s="58" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="H129" s="15">
         <v>0</v>
@@ -5943,20 +6025,20 @@
         <v>129</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="C130" s="131" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="D130" s="131"/>
       <c r="E130" s="26" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="F130" s="27">
         <v>25</v>
       </c>
       <c r="G130" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H130" s="29">
         <v>2</v>
@@ -5974,20 +6056,20 @@
         <v>130</v>
       </c>
       <c r="B131" s="26" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="C131" s="131" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="D131" s="131"/>
       <c r="E131" s="26" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="F131" s="27">
         <v>25</v>
       </c>
       <c r="G131" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H131" s="29">
         <v>1</v>
@@ -6005,20 +6087,20 @@
         <v>131</v>
       </c>
       <c r="B132" s="26" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C132" s="131" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="D132" s="131"/>
       <c r="E132" s="26" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="F132" s="27">
         <v>25</v>
       </c>
       <c r="G132" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H132" s="29">
         <v>1</v>
@@ -6036,20 +6118,20 @@
         <v>132</v>
       </c>
       <c r="B133" s="40" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C133" s="133" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="D133" s="133"/>
       <c r="E133" s="40" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="F133" s="41">
         <v>25</v>
       </c>
       <c r="G133" s="42" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="H133" s="43">
         <v>1</v>
@@ -6067,7 +6149,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="63" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="C134" s="137">
         <v>44726</v>
@@ -6076,7 +6158,7 @@
         <v>44742</v>
       </c>
       <c r="E134" s="63" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F134" s="64">
         <v>50</v>
@@ -6098,7 +6180,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="63" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="C135" s="137">
         <v>44487</v>
@@ -6107,7 +6189,7 @@
         <v>44741</v>
       </c>
       <c r="E135" s="63" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="F135" s="64">
         <v>50</v>
@@ -6129,20 +6211,20 @@
         <v>135</v>
       </c>
       <c r="B136" s="80" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="C136" s="140" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="D136" s="140"/>
       <c r="E136" s="80" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="F136" s="81">
         <v>25</v>
       </c>
       <c r="G136" s="82" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="H136" s="83">
         <v>1</v>
@@ -6160,16 +6242,16 @@
         <v>136</v>
       </c>
       <c r="B137" s="63" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="C137" s="137" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="D137" s="137">
         <v>44713</v>
       </c>
       <c r="E137" s="63" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="F137" s="64">
         <v>25</v>
@@ -6191,7 +6273,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="63" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C138" s="137">
         <v>44603</v>
@@ -6200,7 +6282,7 @@
         <v>44704</v>
       </c>
       <c r="E138" s="63" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="F138" s="64">
         <v>50</v>
@@ -6222,20 +6304,20 @@
         <v>138</v>
       </c>
       <c r="B139" s="26" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="C139" s="131" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="D139" s="131"/>
       <c r="E139" s="26" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="F139" s="27">
         <v>25</v>
       </c>
       <c r="G139" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H139" s="29">
         <v>1</v>
@@ -6253,20 +6335,20 @@
         <v>139</v>
       </c>
       <c r="B140" s="26" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="C140" s="131" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="D140" s="131"/>
       <c r="E140" s="26" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="F140" s="27">
         <v>25</v>
       </c>
       <c r="G140" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H140" s="29">
         <v>1</v>
@@ -6289,7 +6371,7 @@
       <c r="E141" s="33"/>
       <c r="F141" s="34"/>
       <c r="G141" s="35" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="H141" s="36">
         <v>1</v>
@@ -6305,20 +6387,20 @@
         <v>141</v>
       </c>
       <c r="B142" s="26" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="C142" s="131" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="D142" s="131"/>
       <c r="E142" s="26" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="F142" s="27" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G142" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H142" s="29">
         <v>1</v>
@@ -6336,14 +6418,14 @@
         <v>142</v>
       </c>
       <c r="B143" s="63" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="C143" s="137">
         <v>44868</v>
       </c>
       <c r="D143" s="137"/>
       <c r="E143" s="63" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="F143" s="64">
         <v>50</v>
@@ -6365,7 +6447,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="95" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="C144" s="142">
         <v>44671</v>
@@ -6374,7 +6456,7 @@
         <v>44700</v>
       </c>
       <c r="E144" s="95" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="F144" s="96">
         <v>50</v>
@@ -6401,7 +6483,7 @@
       <c r="E145" s="56"/>
       <c r="F145" s="57"/>
       <c r="G145" s="58" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="H145" s="15">
         <v>1</v>
@@ -6419,14 +6501,14 @@
         <v>145</v>
       </c>
       <c r="B146" s="33" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="C146" s="132">
         <v>44854</v>
       </c>
       <c r="D146" s="132"/>
       <c r="E146" s="33" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="F146" s="34">
         <v>50</v>
@@ -6448,20 +6530,20 @@
         <v>146</v>
       </c>
       <c r="B147" s="40" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="C147" s="133" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="D147" s="133"/>
       <c r="E147" s="40" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="F147" s="41">
         <v>50</v>
       </c>
       <c r="G147" s="42" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="H147" s="43">
         <v>1</v>
@@ -6481,20 +6563,20 @@
         <v>147</v>
       </c>
       <c r="B148" s="26" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="C148" s="131" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="D148" s="131"/>
       <c r="E148" s="26" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="F148" s="27">
         <v>25</v>
       </c>
       <c r="G148" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H148" s="29">
         <v>1</v>
@@ -6512,7 +6594,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="95" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C149" s="142">
         <v>44671</v>
@@ -6521,7 +6603,7 @@
         <v>44743</v>
       </c>
       <c r="E149" s="95" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="F149" s="96">
         <v>50</v>
@@ -6550,7 +6632,7 @@
       <c r="E150" s="49"/>
       <c r="F150" s="50"/>
       <c r="G150" s="51" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="H150" s="15">
         <v>1</v>
@@ -6566,20 +6648,20 @@
         <v>150</v>
       </c>
       <c r="B151" s="26" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="C151" s="131" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="D151" s="131"/>
       <c r="E151" s="26" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="F151" s="27">
         <v>25</v>
       </c>
       <c r="G151" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H151" s="29">
         <v>1</v>
@@ -6597,7 +6679,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="95" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="C152" s="142">
         <v>44671</v>
@@ -6606,7 +6688,7 @@
         <v>44746</v>
       </c>
       <c r="E152" s="95" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="F152" s="96">
         <v>50</v>
@@ -6628,7 +6710,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="95" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="C153" s="142">
         <v>44672</v>
@@ -6637,7 +6719,7 @@
         <v>44700</v>
       </c>
       <c r="E153" s="95" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="F153" s="96">
         <v>50</v>
@@ -6659,7 +6741,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="63" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="C154" s="137">
         <v>44678</v>
@@ -6668,7 +6750,7 @@
         <v>44704</v>
       </c>
       <c r="E154" s="63" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="F154" s="64">
         <v>50</v>
@@ -6690,14 +6772,14 @@
         <v>154</v>
       </c>
       <c r="B155" s="33" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="C155" s="132">
         <v>44854</v>
       </c>
       <c r="D155" s="132"/>
       <c r="E155" s="33" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="F155" s="34">
         <v>50</v>
@@ -6719,14 +6801,14 @@
         <v>155</v>
       </c>
       <c r="B156" s="33" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="C156" s="132">
         <v>44854</v>
       </c>
       <c r="D156" s="132"/>
       <c r="E156" s="33" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="F156" s="34">
         <v>50</v>
@@ -6748,14 +6830,14 @@
         <v>156</v>
       </c>
       <c r="B157" s="49" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C157" s="134">
         <v>44854</v>
       </c>
       <c r="D157" s="134"/>
       <c r="E157" s="49" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="F157" s="50">
         <v>50</v>
@@ -6777,16 +6859,16 @@
         <v>157</v>
       </c>
       <c r="B158" s="63" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="C158" s="137" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="D158" s="137">
         <v>44705</v>
       </c>
       <c r="E158" s="63" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="F158" s="64">
         <v>50</v>
@@ -6808,14 +6890,14 @@
         <v>158</v>
       </c>
       <c r="B159" s="33" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="C159" s="132">
         <v>44855</v>
       </c>
       <c r="D159" s="132"/>
       <c r="E159" s="33" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="F159" s="34">
         <v>50</v>
@@ -6837,20 +6919,20 @@
         <v>159</v>
       </c>
       <c r="B160" s="26" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="C160" s="131" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="D160" s="131"/>
       <c r="E160" s="26" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="F160" s="27">
         <v>25</v>
       </c>
       <c r="G160" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H160" s="29">
         <v>1</v>
@@ -6868,14 +6950,14 @@
         <v>160</v>
       </c>
       <c r="B161" s="33" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="C161" s="132">
         <v>44868</v>
       </c>
       <c r="D161" s="132"/>
       <c r="E161" s="33" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="F161" s="34">
         <v>50</v>
@@ -6899,14 +6981,14 @@
         <v>161</v>
       </c>
       <c r="B162" s="33" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="C162" s="132">
         <v>44869</v>
       </c>
       <c r="D162" s="132"/>
       <c r="E162" s="33" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="F162" s="34">
         <v>50</v>
@@ -6928,20 +7010,20 @@
         <v>162</v>
       </c>
       <c r="B163" s="80" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="C163" s="140" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="D163" s="140"/>
       <c r="E163" s="80" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="F163" s="81">
         <v>25</v>
       </c>
       <c r="G163" s="82" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="H163" s="83">
         <v>1</v>
@@ -6961,16 +7043,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="63" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C164" s="137" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="D164" s="137">
         <v>44743</v>
       </c>
       <c r="E164" s="63" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="F164" s="64">
         <v>50</v>
@@ -6992,20 +7074,20 @@
         <v>164</v>
       </c>
       <c r="B165" s="26" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="C165" s="131" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="D165" s="131"/>
       <c r="E165" s="26" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="F165" s="27">
         <v>25</v>
       </c>
       <c r="G165" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H165" s="29">
         <v>1</v>
@@ -7023,20 +7105,20 @@
         <v>165</v>
       </c>
       <c r="B166" s="80" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="C166" s="140" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="D166" s="140"/>
       <c r="E166" s="80" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="F166" s="81">
         <v>25</v>
       </c>
       <c r="G166" s="82" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="H166" s="83">
         <v>1</v>
@@ -7054,14 +7136,14 @@
         <v>166</v>
       </c>
       <c r="B167" s="33" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C167" s="132">
         <v>44869</v>
       </c>
       <c r="D167" s="132"/>
       <c r="E167" s="33" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="F167" s="34">
         <v>50</v>
@@ -7083,14 +7165,14 @@
         <v>167</v>
       </c>
       <c r="B168" s="33" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="C168" s="132">
         <v>44869</v>
       </c>
       <c r="D168" s="132"/>
       <c r="E168" s="33" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="F168" s="34">
         <v>50</v>
@@ -7117,7 +7199,7 @@
       <c r="E169" s="33"/>
       <c r="F169" s="34"/>
       <c r="G169" s="35" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="H169" s="36">
         <v>2</v>
@@ -7133,14 +7215,14 @@
         <v>169</v>
       </c>
       <c r="B170" s="33" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="C170" s="132">
         <v>44889</v>
       </c>
       <c r="D170" s="132"/>
       <c r="E170" s="33" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F170" s="34">
         <v>50</v>
@@ -7219,20 +7301,20 @@
         <v>173</v>
       </c>
       <c r="B174" s="26" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C174" s="131" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="D174" s="131"/>
       <c r="E174" s="26" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="F174" s="27">
         <v>25</v>
       </c>
       <c r="G174" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H174" s="29">
         <v>1</v>
@@ -7288,16 +7370,16 @@
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="C177" s="128" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D177" s="128">
         <v>44457</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="F177" s="6">
         <v>50</v>
@@ -7321,20 +7403,20 @@
         <v>177</v>
       </c>
       <c r="B178" s="80" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="C178" s="140" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="D178" s="140"/>
       <c r="E178" s="80" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="F178" s="81">
         <v>25</v>
       </c>
       <c r="G178" s="82" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="H178" s="83">
         <v>1</v>
@@ -7352,20 +7434,20 @@
         <v>178</v>
       </c>
       <c r="B179" s="26" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="C179" s="131" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="D179" s="131"/>
       <c r="E179" s="26" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="F179" s="27">
         <v>25</v>
       </c>
       <c r="G179" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H179" s="29">
         <v>1</v>
@@ -7383,20 +7465,20 @@
         <v>179</v>
       </c>
       <c r="B180" s="26" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="C180" s="131" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="D180" s="131"/>
       <c r="E180" s="26" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="F180" s="27">
         <v>25</v>
       </c>
       <c r="G180" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H180" s="29">
         <v>1</v>
@@ -7471,20 +7553,20 @@
         <v>183</v>
       </c>
       <c r="B184" s="26" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="C184" s="131" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="D184" s="131"/>
       <c r="E184" s="26" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="F184" s="27">
         <v>25</v>
       </c>
       <c r="G184" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H184" s="29">
         <v>1</v>
@@ -7521,14 +7603,14 @@
         <v>185</v>
       </c>
       <c r="B186" s="49" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="C186" s="134">
         <v>44881</v>
       </c>
       <c r="D186" s="134"/>
       <c r="E186" s="49" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="F186" s="50">
         <v>50</v>
@@ -7550,20 +7632,20 @@
         <v>186</v>
       </c>
       <c r="B187" s="26" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="C187" s="131" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="D187" s="131"/>
       <c r="E187" s="26" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="F187" s="27">
         <v>25</v>
       </c>
       <c r="G187" s="28" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="H187" s="29">
         <v>1</v>
@@ -7581,20 +7663,20 @@
         <v>187</v>
       </c>
       <c r="B188" s="80" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="C188" s="140" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="D188" s="140"/>
       <c r="E188" s="80" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="F188" s="81">
         <v>25</v>
       </c>
       <c r="G188" s="82" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="H188" s="83">
         <v>1</v>
@@ -7611,16 +7693,26 @@
       <c r="A189" s="32">
         <v>188</v>
       </c>
-      <c r="B189" s="33"/>
-      <c r="C189" s="132"/>
+      <c r="B189" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="C189" s="132">
+        <v>44896</v>
+      </c>
       <c r="D189" s="132"/>
-      <c r="E189" s="33"/>
-      <c r="F189" s="34"/>
+      <c r="E189" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="F189" s="34">
+        <v>50</v>
+      </c>
       <c r="G189" s="35"/>
       <c r="H189" s="36">
-        <v>2</v>
-      </c>
-      <c r="I189" s="36"/>
+        <v>1</v>
+      </c>
+      <c r="I189" s="36">
+        <v>1</v>
+      </c>
       <c r="J189" s="36"/>
       <c r="K189" s="37"/>
       <c r="L189" s="38"/>
@@ -7631,14 +7723,14 @@
         <v>189</v>
       </c>
       <c r="B190" s="33" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="C190" s="132">
         <v>44881</v>
       </c>
       <c r="D190" s="132"/>
       <c r="E190" s="33" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="F190" s="34">
         <v>50</v>
@@ -7660,14 +7752,14 @@
         <v>190</v>
       </c>
       <c r="B191" s="49" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="C191" s="134">
         <v>44881</v>
       </c>
       <c r="D191" s="134"/>
       <c r="E191" s="49" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="F191" s="50">
         <v>50</v>
@@ -7689,14 +7781,14 @@
         <v>191</v>
       </c>
       <c r="B192" s="33" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="C192" s="132">
         <v>44881</v>
       </c>
       <c r="D192" s="132"/>
       <c r="E192" s="33" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="F192" s="34">
         <v>50</v>
@@ -7718,20 +7810,20 @@
         <v>192</v>
       </c>
       <c r="B193" s="26" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="C193" s="131" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="D193" s="131"/>
       <c r="E193" s="26" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="F193" s="27">
         <v>25</v>
       </c>
       <c r="G193" s="28" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="H193" s="29">
         <v>1</v>
@@ -7749,20 +7841,20 @@
         <v>193</v>
       </c>
       <c r="B194" s="26" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="C194" s="131" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="D194" s="131"/>
       <c r="E194" s="26" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="F194" s="27">
         <v>25</v>
       </c>
       <c r="G194" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H194" s="29">
         <v>1</v>
@@ -7785,7 +7877,7 @@
       <c r="E195" s="26"/>
       <c r="F195" s="27"/>
       <c r="G195" s="28" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="H195" s="29">
         <v>1</v>
@@ -7803,20 +7895,20 @@
         <v>195</v>
       </c>
       <c r="B196" s="26" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="C196" s="131" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="D196" s="131"/>
       <c r="E196" s="26" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="F196" s="27">
         <v>25</v>
       </c>
       <c r="G196" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H196" s="29">
         <v>1</v>
@@ -7853,20 +7945,20 @@
         <v>197</v>
       </c>
       <c r="B198" s="26" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="C198" s="131" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="D198" s="131"/>
       <c r="E198" s="26" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="F198" s="27">
         <v>25</v>
       </c>
       <c r="G198" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H198" s="29">
         <v>1</v>
@@ -7903,20 +7995,20 @@
         <v>199</v>
       </c>
       <c r="B200" s="80" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="C200" s="140" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="D200" s="140"/>
       <c r="E200" s="80" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="F200" s="81">
         <v>25</v>
       </c>
       <c r="G200" s="82" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="H200" s="83">
         <v>1</v>
@@ -7934,22 +8026,22 @@
         <v>200</v>
       </c>
       <c r="B201" s="63" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="C201" s="137" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="D201" s="137">
         <v>44735</v>
       </c>
       <c r="E201" s="63" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="F201" s="64">
         <v>25</v>
       </c>
       <c r="G201" s="65" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="H201" s="15">
         <v>1</v>
@@ -7967,16 +8059,16 @@
         <v>201</v>
       </c>
       <c r="B202" s="33" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="C202" s="132" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="D202" s="132">
         <v>44700</v>
       </c>
       <c r="E202" s="33" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="F202" s="34">
         <v>25</v>
@@ -7998,20 +8090,20 @@
         <v>202</v>
       </c>
       <c r="B203" s="80" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="C203" s="140" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D203" s="140"/>
       <c r="E203" s="80" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="F203" s="81">
         <v>25</v>
       </c>
       <c r="G203" s="82" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="H203" s="83">
         <v>1</v>
@@ -8048,20 +8140,20 @@
         <v>204</v>
       </c>
       <c r="B205" s="26" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="C205" s="131" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="D205" s="131"/>
       <c r="E205" s="26" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="F205" s="27">
         <v>25</v>
       </c>
       <c r="G205" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H205" s="29">
         <v>1</v>
@@ -8098,20 +8190,20 @@
         <v>206</v>
       </c>
       <c r="B207" s="26" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="C207" s="131" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="D207" s="131"/>
       <c r="E207" s="26" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="F207" s="27">
         <v>25</v>
       </c>
       <c r="G207" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H207" s="29">
         <v>1</v>
@@ -8186,20 +8278,20 @@
         <v>210</v>
       </c>
       <c r="B211" s="80" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="C211" s="140" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="D211" s="140"/>
       <c r="E211" s="80" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="F211" s="81">
         <v>25</v>
       </c>
       <c r="G211" s="82" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="H211" s="83">
         <v>1</v>
@@ -8331,20 +8423,20 @@
         <v>217</v>
       </c>
       <c r="B218" s="80" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="C218" s="140" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="D218" s="140"/>
       <c r="E218" s="80" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="F218" s="81">
         <v>25</v>
       </c>
       <c r="G218" s="82" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="H218" s="83">
         <v>1</v>
@@ -8381,20 +8473,20 @@
         <v>219</v>
       </c>
       <c r="B220" s="80" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="C220" s="140" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="D220" s="140"/>
       <c r="E220" s="80" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="F220" s="81">
         <v>25</v>
       </c>
       <c r="G220" s="82" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="H220" s="83">
         <v>1</v>
@@ -8455,7 +8547,7 @@
       <c r="E223" s="56"/>
       <c r="F223" s="57"/>
       <c r="G223" s="58" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="H223" s="15">
         <v>1</v>
@@ -8511,20 +8603,20 @@
         <v>225</v>
       </c>
       <c r="B226" s="80" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="C226" s="140" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="D226" s="140"/>
       <c r="E226" s="80" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="F226" s="81">
         <v>25</v>
       </c>
       <c r="G226" s="82" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="H226" s="83">
         <v>1</v>
@@ -8542,20 +8634,20 @@
         <v>226</v>
       </c>
       <c r="B227" s="26" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="C227" s="131" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="D227" s="131"/>
       <c r="E227" s="26" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="F227" s="27">
         <v>25</v>
       </c>
       <c r="G227" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H227" s="29">
         <v>1</v>
@@ -8611,16 +8703,16 @@
         <v>229</v>
       </c>
       <c r="B230" s="63" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="C230" s="137" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="D230" s="137">
         <v>44713</v>
       </c>
       <c r="E230" s="63" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="F230" s="64">
         <v>50</v>
@@ -8642,20 +8734,20 @@
         <v>230</v>
       </c>
       <c r="B231" s="63" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="C231" s="137">
         <v>43753</v>
       </c>
       <c r="D231" s="137"/>
       <c r="E231" s="63" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="F231" s="64">
         <v>50</v>
       </c>
       <c r="G231" s="65" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="H231" s="15">
         <v>1</v>
@@ -8673,7 +8765,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="63" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="C232" s="137">
         <v>41264</v>
@@ -8682,13 +8774,13 @@
         <v>44752</v>
       </c>
       <c r="E232" s="63" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="F232" s="64">
         <v>25</v>
       </c>
       <c r="G232" s="65" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="H232" s="15">
         <v>1</v>
@@ -8725,20 +8817,20 @@
         <v>233</v>
       </c>
       <c r="B234" s="26" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="C234" s="131" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="D234" s="131"/>
       <c r="E234" s="26" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="F234" s="27">
         <v>25</v>
       </c>
       <c r="G234" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H234" s="29">
         <v>1</v>
@@ -8756,20 +8848,20 @@
         <v>234</v>
       </c>
       <c r="B235" s="26" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="C235" s="131" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="D235" s="131"/>
       <c r="E235" s="26" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="F235" s="27">
         <v>25</v>
       </c>
       <c r="G235" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H235" s="29">
         <v>1</v>
@@ -8806,20 +8898,20 @@
         <v>236</v>
       </c>
       <c r="B237" s="26" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="C237" s="131" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="D237" s="131"/>
       <c r="E237" s="26" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="F237" s="27">
         <v>25</v>
       </c>
       <c r="G237" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H237" s="29">
         <v>1</v>
@@ -8875,20 +8967,20 @@
         <v>239</v>
       </c>
       <c r="B240" s="26" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="C240" s="131" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="D240" s="131"/>
       <c r="E240" s="26" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="F240" s="27">
         <v>25</v>
       </c>
       <c r="G240" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H240" s="29">
         <v>1</v>
@@ -8963,20 +9055,20 @@
         <v>243</v>
       </c>
       <c r="B244" s="80" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="C244" s="140">
         <v>41484</v>
       </c>
       <c r="D244" s="140"/>
       <c r="E244" s="80" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="F244" s="81">
         <v>25</v>
       </c>
       <c r="G244" s="82" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="H244" s="83">
         <v>1</v>
@@ -8994,20 +9086,20 @@
         <v>244</v>
       </c>
       <c r="B245" s="26" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="C245" s="131">
         <v>41484</v>
       </c>
       <c r="D245" s="131"/>
       <c r="E245" s="26" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="F245" s="27">
         <v>25</v>
       </c>
       <c r="G245" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H245" s="29">
         <v>1</v>
@@ -9044,20 +9136,20 @@
         <v>246</v>
       </c>
       <c r="B247" s="63" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="C247" s="137">
         <v>38330</v>
       </c>
       <c r="D247" s="137"/>
       <c r="E247" s="63" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="F247" s="64">
         <v>25</v>
       </c>
       <c r="G247" s="65" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="H247" s="15">
         <v>1</v>
@@ -9075,20 +9167,20 @@
         <v>247</v>
       </c>
       <c r="B248" s="26" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="C248" s="131">
         <v>41576</v>
       </c>
       <c r="D248" s="131"/>
       <c r="E248" s="26" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="F248" s="27">
         <v>25</v>
       </c>
       <c r="G248" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H248" s="29">
         <v>1</v>
@@ -9106,20 +9198,20 @@
         <v>248</v>
       </c>
       <c r="B249" s="26" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="C249" s="131">
         <v>41569</v>
       </c>
       <c r="D249" s="131"/>
       <c r="E249" s="26" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="F249" s="27">
         <v>25</v>
       </c>
       <c r="G249" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H249" s="29">
         <v>1</v>
@@ -9156,20 +9248,20 @@
         <v>250</v>
       </c>
       <c r="B251" s="26" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="C251" s="131">
         <v>41218</v>
       </c>
       <c r="D251" s="131"/>
       <c r="E251" s="26" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="F251" s="27">
         <v>25</v>
       </c>
       <c r="G251" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H251" s="29">
         <v>1</v>
@@ -9187,20 +9279,20 @@
         <v>251</v>
       </c>
       <c r="B252" s="26" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="C252" s="131">
         <v>40835</v>
       </c>
       <c r="D252" s="131"/>
       <c r="E252" s="26" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="F252" s="27">
         <v>25</v>
       </c>
       <c r="G252" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H252" s="29">
         <v>1</v>
@@ -9237,20 +9329,20 @@
         <v>253</v>
       </c>
       <c r="B254" s="40" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="C254" s="133">
         <v>40841</v>
       </c>
       <c r="D254" s="133"/>
       <c r="E254" s="40" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="F254" s="41">
         <v>25</v>
       </c>
       <c r="G254" s="42" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="H254" s="43">
         <v>1</v>
@@ -9270,20 +9362,20 @@
         <v>254</v>
       </c>
       <c r="B255" s="26" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="C255" s="131" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="D255" s="131"/>
       <c r="E255" s="26" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="F255" s="27">
         <v>25</v>
       </c>
       <c r="G255" s="28" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="H255" s="29">
         <v>2</v>
@@ -9301,20 +9393,20 @@
         <v>255</v>
       </c>
       <c r="B256" s="80" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="C256" s="140">
         <v>40842</v>
       </c>
       <c r="D256" s="140"/>
       <c r="E256" s="80" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="F256" s="81">
         <v>25</v>
       </c>
       <c r="G256" s="82" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="H256" s="83">
         <v>1</v>
@@ -9332,20 +9424,20 @@
         <v>256</v>
       </c>
       <c r="B257" s="80" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="C257" s="140">
         <v>40842</v>
       </c>
       <c r="D257" s="140"/>
       <c r="E257" s="80" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="F257" s="81">
         <v>25</v>
       </c>
       <c r="G257" s="82" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="H257" s="83">
         <v>1</v>
@@ -9363,20 +9455,20 @@
         <v>257</v>
       </c>
       <c r="B258" s="26" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="C258" s="131">
         <v>40843</v>
       </c>
       <c r="D258" s="131"/>
       <c r="E258" s="26" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="F258" s="27">
         <v>25</v>
       </c>
       <c r="G258" s="28" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="H258" s="29">
         <v>1</v>
@@ -9394,20 +9486,20 @@
         <v>258</v>
       </c>
       <c r="B259" s="26" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="C259" s="131">
         <v>40849</v>
       </c>
       <c r="D259" s="131"/>
       <c r="E259" s="26" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="F259" s="27">
         <v>25</v>
       </c>
       <c r="G259" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H259" s="29">
         <v>1</v>
@@ -9468,7 +9560,7 @@
       <c r="E262" s="56"/>
       <c r="F262" s="57"/>
       <c r="G262" s="58" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="H262" s="15">
         <v>1</v>
@@ -9486,20 +9578,20 @@
         <v>262</v>
       </c>
       <c r="B263" s="26" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="C263" s="131">
         <v>40949</v>
       </c>
       <c r="D263" s="131"/>
       <c r="E263" s="26" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="F263" s="27">
         <v>25</v>
       </c>
       <c r="G263" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H263" s="29">
         <v>1</v>
@@ -9517,20 +9609,20 @@
         <v>263</v>
       </c>
       <c r="B264" s="26" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="C264" s="131">
         <v>40949</v>
       </c>
       <c r="D264" s="131"/>
       <c r="E264" s="26" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="F264" s="27">
         <v>25</v>
       </c>
       <c r="G264" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H264" s="29">
         <v>1</v>
@@ -9548,20 +9640,20 @@
         <v>264</v>
       </c>
       <c r="B265" s="26" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="C265" s="131">
         <v>42269</v>
       </c>
       <c r="D265" s="131"/>
       <c r="E265" s="26" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="F265" s="27">
         <v>25</v>
       </c>
       <c r="G265" s="28" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="H265" s="29">
         <v>2</v>
@@ -9579,20 +9671,20 @@
         <v>265</v>
       </c>
       <c r="B266" s="26" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="C266" s="131">
         <v>40970</v>
       </c>
       <c r="D266" s="131"/>
       <c r="E266" s="26" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="F266" s="27">
         <v>25</v>
       </c>
       <c r="G266" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H266" s="29">
         <v>1</v>
@@ -9610,20 +9702,20 @@
         <v>266</v>
       </c>
       <c r="B267" s="80" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="C267" s="140" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="D267" s="140"/>
       <c r="E267" s="80" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="F267" s="81">
         <v>50</v>
       </c>
       <c r="G267" s="82" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="H267" s="83">
         <v>1</v>
@@ -9641,20 +9733,20 @@
         <v>267</v>
       </c>
       <c r="B268" s="26" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="C268" s="131">
         <v>41011</v>
       </c>
       <c r="D268" s="131"/>
       <c r="E268" s="26" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="F268" s="27">
         <v>25</v>
       </c>
       <c r="G268" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H268" s="29">
         <v>1</v>
@@ -9691,16 +9783,16 @@
         <v>269</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C270" s="128" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="D270" s="128">
         <v>44457</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="F270" s="6">
         <v>50</v>
@@ -9781,20 +9873,20 @@
         <v>273</v>
       </c>
       <c r="B274" s="80" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="C274" s="140" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="D274" s="140"/>
       <c r="E274" s="80" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="F274" s="81">
         <v>25</v>
       </c>
       <c r="G274" s="82" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="H274" s="83">
         <v>1</v>
@@ -9812,20 +9904,20 @@
         <v>274</v>
       </c>
       <c r="B275" s="26" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="C275" s="131" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="D275" s="131"/>
       <c r="E275" s="26" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="F275" s="27">
         <v>25</v>
       </c>
       <c r="G275" s="28" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="H275" s="29">
         <v>1</v>
@@ -9862,20 +9954,20 @@
         <v>276</v>
       </c>
       <c r="B277" s="26" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="C277" s="131">
         <v>41032</v>
       </c>
       <c r="D277" s="131"/>
       <c r="E277" s="26" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="F277" s="27">
         <v>25</v>
       </c>
       <c r="G277" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H277" s="29">
         <v>1</v>
@@ -9893,20 +9985,20 @@
         <v>277</v>
       </c>
       <c r="B278" s="26" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="C278" s="131">
         <v>38393</v>
       </c>
       <c r="D278" s="131"/>
       <c r="E278" s="26" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="F278" s="27">
         <v>25</v>
       </c>
       <c r="G278" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H278" s="29">
         <v>1</v>
@@ -9924,20 +10016,20 @@
         <v>278</v>
       </c>
       <c r="B279" s="80" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="C279" s="140">
         <v>41032</v>
       </c>
       <c r="D279" s="140"/>
       <c r="E279" s="80" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="F279" s="81">
         <v>25</v>
       </c>
       <c r="G279" s="82" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="H279" s="83">
         <v>1</v>
@@ -9955,20 +10047,20 @@
         <v>279</v>
       </c>
       <c r="B280" s="26" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C280" s="131">
         <v>41037</v>
       </c>
       <c r="D280" s="131"/>
       <c r="E280" s="26" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="F280" s="27">
         <v>25</v>
       </c>
       <c r="G280" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H280" s="29">
         <v>1</v>
@@ -9986,16 +10078,16 @@
         <v>280</v>
       </c>
       <c r="B281" s="63" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="C281" s="137" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="D281" s="137">
         <v>44705</v>
       </c>
       <c r="E281" s="63" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="F281" s="64">
         <v>50</v>
@@ -10017,20 +10109,20 @@
         <v>281</v>
       </c>
       <c r="B282" s="26" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="C282" s="131">
         <v>37077</v>
       </c>
       <c r="D282" s="131"/>
       <c r="E282" s="26" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="F282" s="27">
         <v>25</v>
       </c>
       <c r="G282" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H282" s="29">
         <v>1</v>
@@ -10048,16 +10140,16 @@
         <v>282</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="C283" s="128" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="D283" s="128">
         <v>44735</v>
       </c>
       <c r="E283" s="5" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="F283" s="6">
         <v>50</v>
@@ -10081,20 +10173,20 @@
         <v>283</v>
       </c>
       <c r="B284" s="26" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="C284" s="131">
         <v>41065</v>
       </c>
       <c r="D284" s="131"/>
       <c r="E284" s="26" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="F284" s="27">
         <v>25</v>
       </c>
       <c r="G284" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H284" s="29">
         <v>1</v>
@@ -10112,20 +10204,20 @@
         <v>284</v>
       </c>
       <c r="B285" s="80" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="C285" s="140">
         <v>41085</v>
       </c>
       <c r="D285" s="140"/>
       <c r="E285" s="80" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="F285" s="81">
         <v>25</v>
       </c>
       <c r="G285" s="82" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="H285" s="83">
         <v>1</v>
@@ -10143,20 +10235,20 @@
         <v>285</v>
       </c>
       <c r="B286" s="26" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="C286" s="131">
         <v>37077</v>
       </c>
       <c r="D286" s="131"/>
       <c r="E286" s="26" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="F286" s="27">
         <v>25</v>
       </c>
       <c r="G286" s="28" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="H286" s="29">
         <v>1</v>
@@ -10174,20 +10266,20 @@
         <v>286</v>
       </c>
       <c r="B287" s="26" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="C287" s="131">
         <v>38483</v>
       </c>
       <c r="D287" s="131"/>
       <c r="E287" s="26" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="F287" s="27">
         <v>25</v>
       </c>
       <c r="G287" s="28" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="H287" s="29">
         <v>1</v>
@@ -10205,20 +10297,20 @@
         <v>287</v>
       </c>
       <c r="B288" s="26" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="C288" s="131">
         <v>41088</v>
       </c>
       <c r="D288" s="131"/>
       <c r="E288" s="26" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="F288" s="27">
         <v>25</v>
       </c>
       <c r="G288" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H288" s="29">
         <v>1</v>
@@ -10236,16 +10328,16 @@
         <v>288</v>
       </c>
       <c r="B289" s="63" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="C289" s="137" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="D289" s="137">
         <v>44738</v>
       </c>
       <c r="E289" s="63" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="F289" s="64">
         <v>50</v>
@@ -10267,20 +10359,20 @@
         <v>289</v>
       </c>
       <c r="B290" s="63" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="C290" s="137">
         <v>37929</v>
       </c>
       <c r="D290" s="137"/>
       <c r="E290" s="63" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="F290" s="64">
         <v>25</v>
       </c>
       <c r="G290" s="65" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="H290" s="15">
         <v>1</v>
@@ -10336,20 +10428,20 @@
         <v>292</v>
       </c>
       <c r="B293" s="26" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="C293" s="131">
         <v>41206</v>
       </c>
       <c r="D293" s="131"/>
       <c r="E293" s="26" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="F293" s="27">
         <v>25</v>
       </c>
       <c r="G293" s="28" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="H293" s="29">
         <v>1</v>
@@ -10386,20 +10478,20 @@
         <v>294</v>
       </c>
       <c r="B295" s="26" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="C295" s="131">
         <v>38861</v>
       </c>
       <c r="D295" s="131"/>
       <c r="E295" s="26" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="F295" s="27">
         <v>25</v>
       </c>
       <c r="G295" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H295" s="29">
         <v>1</v>
@@ -10436,20 +10528,20 @@
         <v>296</v>
       </c>
       <c r="B297" s="26" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="C297" s="131">
         <v>40504</v>
       </c>
       <c r="D297" s="131"/>
       <c r="E297" s="26" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="F297" s="27">
         <v>25</v>
       </c>
       <c r="G297" s="28" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="H297" s="29">
         <v>1</v>
@@ -10467,7 +10559,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C298" s="128">
         <v>43763</v>
@@ -10476,7 +10568,7 @@
         <v>44735</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F298" s="6"/>
       <c r="G298" s="7"/>
@@ -10498,20 +10590,20 @@
         <v>298</v>
       </c>
       <c r="B299" s="80" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="C299" s="140">
         <v>41213</v>
       </c>
       <c r="D299" s="140"/>
       <c r="E299" s="80" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="F299" s="81">
         <v>25</v>
       </c>
       <c r="G299" s="82" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="H299" s="83">
         <v>1</v>
@@ -10529,20 +10621,20 @@
         <v>299</v>
       </c>
       <c r="B300" s="80" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="C300" s="140">
         <v>40486</v>
       </c>
       <c r="D300" s="140"/>
       <c r="E300" s="80" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="F300" s="81">
         <v>25</v>
       </c>
       <c r="G300" s="82" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="H300" s="83">
         <v>1</v>
@@ -10560,20 +10652,20 @@
         <v>300</v>
       </c>
       <c r="B301" s="26" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="C301" s="131">
         <v>40308</v>
       </c>
       <c r="D301" s="131"/>
       <c r="E301" s="26" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="F301" s="27">
         <v>25</v>
       </c>
       <c r="G301" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H301" s="29">
         <v>1</v>
@@ -10667,16 +10759,16 @@
         <v>305</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C306" s="128" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D306" s="128">
         <v>44457</v>
       </c>
       <c r="E306" s="5" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F306" s="6">
         <v>50</v>
@@ -10700,16 +10792,16 @@
         <v>306</v>
       </c>
       <c r="B307" s="63" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="C307" s="137" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="D307" s="137">
         <v>44700</v>
       </c>
       <c r="E307" s="63" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="F307" s="64">
         <v>50</v>
@@ -10731,20 +10823,20 @@
         <v>307</v>
       </c>
       <c r="B308" s="63" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C308" s="137" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="D308" s="137"/>
       <c r="E308" s="63" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="F308" s="64">
         <v>50</v>
       </c>
       <c r="G308" s="65" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="H308" s="15">
         <v>1</v>
@@ -10781,16 +10873,16 @@
         <v>309</v>
       </c>
       <c r="B310" s="63" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="C310" s="137" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="D310" s="137">
         <v>44700</v>
       </c>
       <c r="E310" s="63" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="F310" s="64">
         <v>50</v>
@@ -10850,16 +10942,16 @@
         <v>312</v>
       </c>
       <c r="B313" s="63" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="C313" s="137" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="D313" s="137">
         <v>44705</v>
       </c>
       <c r="E313" s="63" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="F313" s="64">
         <v>50</v>
@@ -10881,16 +10973,16 @@
         <v>313</v>
       </c>
       <c r="B314" s="63" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="C314" s="137" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="D314" s="137">
         <v>44463</v>
       </c>
       <c r="E314" s="63" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="F314" s="64">
         <v>50</v>
@@ -10931,20 +11023,20 @@
         <v>315</v>
       </c>
       <c r="B316" s="114" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="C316" s="145">
         <v>40142</v>
       </c>
       <c r="D316" s="145"/>
       <c r="E316" s="114" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="F316" s="115">
         <v>25</v>
       </c>
       <c r="G316" s="116" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="H316" s="117">
         <v>1</v>
@@ -10981,7 +11073,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="95" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="C318" s="142">
         <v>44671</v>
@@ -10990,7 +11082,7 @@
         <v>44700</v>
       </c>
       <c r="E318" s="95" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="F318" s="96">
         <v>50</v>
@@ -11031,20 +11123,20 @@
         <v>319</v>
       </c>
       <c r="B320" s="63" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="C320" s="137" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="D320" s="137"/>
       <c r="E320" s="63" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="F320" s="64">
         <v>50</v>
       </c>
       <c r="G320" s="65" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="H320" s="68">
         <v>1</v>
@@ -11062,18 +11154,18 @@
         <v>320</v>
       </c>
       <c r="B321" s="26" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="C321" s="131">
         <v>42674</v>
       </c>
       <c r="D321" s="131"/>
       <c r="E321" s="26" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="F321" s="27"/>
       <c r="G321" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H321" s="29">
         <v>1</v>
@@ -11110,20 +11202,20 @@
         <v>322</v>
       </c>
       <c r="B323" s="26" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="C323" s="131">
         <v>42870</v>
       </c>
       <c r="D323" s="131"/>
       <c r="E323" s="26" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="F323" s="27">
         <v>25</v>
       </c>
       <c r="G323" s="28" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="H323" s="29">
         <v>1</v>
@@ -11141,20 +11233,20 @@
         <v>323</v>
       </c>
       <c r="B324" s="26" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="C324" s="131" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="D324" s="131"/>
       <c r="E324" s="26" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="F324" s="27">
         <v>50</v>
       </c>
       <c r="G324" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H324" s="29">
         <v>1</v>
@@ -11191,7 +11283,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="63" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="C326" s="137">
         <v>42870</v>
@@ -11200,13 +11292,13 @@
         <v>44725</v>
       </c>
       <c r="E326" s="63" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="F326" s="64">
         <v>25</v>
       </c>
       <c r="G326" s="65" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="H326" s="15">
         <v>1</v>
@@ -11302,20 +11394,20 @@
         <v>330</v>
       </c>
       <c r="B331" s="63" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="C331" s="137">
         <v>42711</v>
       </c>
       <c r="D331" s="137"/>
       <c r="E331" s="63" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="F331" s="64">
         <v>25</v>
       </c>
       <c r="G331" s="65" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="H331" s="15">
         <v>1</v>
@@ -11333,7 +11425,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="C332" s="128">
         <v>42673</v>
@@ -11342,7 +11434,7 @@
         <v>44517</v>
       </c>
       <c r="E332" s="5" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="F332" s="6">
         <v>25</v>
@@ -11385,20 +11477,20 @@
         <v>333</v>
       </c>
       <c r="B334" s="26" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="C334" s="131" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="D334" s="131"/>
       <c r="E334" s="26" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="F334" s="27">
         <v>50</v>
       </c>
       <c r="G334" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H334" s="29">
         <v>1</v>
@@ -11421,7 +11513,7 @@
       <c r="E335" s="33"/>
       <c r="F335" s="34"/>
       <c r="G335" s="35" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="H335" s="36">
         <v>2</v>
@@ -11442,7 +11534,7 @@
       <c r="E336" s="33"/>
       <c r="F336" s="34"/>
       <c r="G336" s="35" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="H336" s="36">
         <v>2</v>
@@ -11515,20 +11607,20 @@
         <v>339</v>
       </c>
       <c r="B340" s="26" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="C340" s="131">
         <v>40408</v>
       </c>
       <c r="D340" s="131"/>
       <c r="E340" s="26" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="F340" s="27">
         <v>25</v>
       </c>
       <c r="G340" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H340" s="29">
         <v>1</v>
@@ -11565,7 +11657,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="C342" s="128">
         <v>42673</v>
@@ -11574,7 +11666,7 @@
         <v>44735</v>
       </c>
       <c r="E342" s="5" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="F342" s="6">
         <v>25</v>
@@ -11598,20 +11690,20 @@
         <v>342</v>
       </c>
       <c r="B343" s="26" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="C343" s="131">
         <v>40393</v>
       </c>
       <c r="D343" s="131"/>
       <c r="E343" s="26" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="F343" s="27">
         <v>25</v>
       </c>
       <c r="G343" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H343" s="29">
         <v>1</v>
@@ -11629,20 +11721,20 @@
         <v>343</v>
       </c>
       <c r="B344" s="63" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="C344" s="137">
         <v>42562</v>
       </c>
       <c r="D344" s="137"/>
       <c r="E344" s="63" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="F344" s="64">
         <v>25</v>
       </c>
       <c r="G344" s="65" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="H344" s="15">
         <v>1</v>
@@ -11698,20 +11790,20 @@
         <v>346</v>
       </c>
       <c r="B347" s="26" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="C347" s="131">
         <v>42473</v>
       </c>
       <c r="D347" s="131"/>
       <c r="E347" s="26" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="F347" s="27">
         <v>25</v>
       </c>
       <c r="G347" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H347" s="29">
         <v>1</v>
@@ -11767,20 +11859,20 @@
         <v>349</v>
       </c>
       <c r="B350" s="26" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="C350" s="131">
         <v>42520</v>
       </c>
       <c r="D350" s="131"/>
       <c r="E350" s="26" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="F350" s="27">
         <v>25</v>
       </c>
       <c r="G350" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H350" s="29">
         <v>1</v>
@@ -11798,18 +11890,18 @@
         <v>350</v>
       </c>
       <c r="B351" s="19" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="C351" s="130" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="D351" s="130"/>
       <c r="E351" s="19" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="F351" s="20"/>
       <c r="G351" s="21" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="H351" s="22">
         <v>2</v>
@@ -11867,16 +11959,16 @@
         <v>353</v>
       </c>
       <c r="B354" s="63" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="C354" s="137" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="D354" s="137">
         <v>44705</v>
       </c>
       <c r="E354" s="63" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="F354" s="64">
         <v>50</v>
@@ -11917,16 +12009,16 @@
         <v>355</v>
       </c>
       <c r="B356" s="63" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="C356" s="137" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="D356" s="137">
         <v>44700</v>
       </c>
       <c r="E356" s="63" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="F356" s="64">
         <v>50</v>
@@ -11986,20 +12078,20 @@
         <v>358</v>
       </c>
       <c r="B359" s="26" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="C359" s="131">
         <v>42520</v>
       </c>
       <c r="D359" s="131"/>
       <c r="E359" s="26" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="F359" s="27">
         <v>25</v>
       </c>
       <c r="G359" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H359" s="29">
         <v>1</v>
@@ -12207,20 +12299,20 @@
         <v>369</v>
       </c>
       <c r="B370" s="26" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="C370" s="131" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="D370" s="131"/>
       <c r="E370" s="26" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
       <c r="F370" s="27">
         <v>50</v>
       </c>
       <c r="G370" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H370" s="29">
         <v>1</v>
@@ -12376,7 +12468,7 @@
       <c r="E378" s="26"/>
       <c r="F378" s="27"/>
       <c r="G378" s="46" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="H378" s="29">
         <v>2</v>
@@ -12394,20 +12486,20 @@
         <v>378</v>
       </c>
       <c r="B379" s="26" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="C379" s="131">
         <v>40113</v>
       </c>
       <c r="D379" s="131"/>
       <c r="E379" s="26" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="F379" s="27">
         <v>25</v>
       </c>
       <c r="G379" s="28" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="H379" s="29">
         <v>1</v>
@@ -12425,20 +12517,20 @@
         <v>379</v>
       </c>
       <c r="B380" s="26" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="C380" s="131">
         <v>40113</v>
       </c>
       <c r="D380" s="131"/>
       <c r="E380" s="26" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="F380" s="27">
         <v>25</v>
       </c>
       <c r="G380" s="28" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="H380" s="29">
         <v>1</v>
@@ -12475,20 +12567,20 @@
         <v>381</v>
       </c>
       <c r="B382" s="63" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="C382" s="137" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="D382" s="137"/>
       <c r="E382" s="63" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="F382" s="64">
         <v>50</v>
       </c>
       <c r="G382" s="65" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="H382" s="15">
         <v>1</v>
@@ -12506,20 +12598,20 @@
         <v>382</v>
       </c>
       <c r="B383" s="26" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="C383" s="131">
         <v>40476</v>
       </c>
       <c r="D383" s="131"/>
       <c r="E383" s="26" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="F383" s="27">
         <v>25</v>
       </c>
       <c r="G383" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H383" s="29">
         <v>1</v>
@@ -12537,20 +12629,20 @@
         <v>383</v>
       </c>
       <c r="B384" s="40" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="C384" s="133">
         <v>40476</v>
       </c>
       <c r="D384" s="133"/>
       <c r="E384" s="40" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="F384" s="41">
         <v>25</v>
       </c>
       <c r="G384" s="42" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="H384" s="43">
         <v>1</v>
@@ -12627,20 +12719,20 @@
         <v>387</v>
       </c>
       <c r="B388" s="63" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="C388" s="137">
         <v>40476</v>
       </c>
       <c r="D388" s="137"/>
       <c r="E388" s="63" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="F388" s="64">
         <v>25</v>
       </c>
       <c r="G388" s="65" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="H388" s="15">
         <v>1</v>
@@ -12677,20 +12769,20 @@
         <v>389</v>
       </c>
       <c r="B390" s="26" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="C390" s="131">
         <v>42662</v>
       </c>
       <c r="D390" s="131"/>
       <c r="E390" s="26" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="F390" s="27">
         <v>25</v>
       </c>
       <c r="G390" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H390" s="29">
         <v>1</v>
@@ -12727,20 +12819,20 @@
         <v>391</v>
       </c>
       <c r="B392" s="26" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="C392" s="131">
         <v>40457</v>
       </c>
       <c r="D392" s="131"/>
       <c r="E392" s="26" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="F392" s="27">
         <v>25</v>
       </c>
       <c r="G392" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H392" s="29">
         <v>1</v>
@@ -12796,7 +12888,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="121" t="s">
-        <v>496</v>
+        <v>515</v>
       </c>
       <c r="C395" s="146">
         <v>43395</v>
@@ -12805,7 +12897,7 @@
         <v>44457</v>
       </c>
       <c r="E395" s="121" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="F395" s="122">
         <v>50</v>
@@ -12848,16 +12940,16 @@
         <v>396</v>
       </c>
       <c r="B397" s="63" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="C397" s="137" t="s">
-        <v>499</v>
+        <v>518</v>
       </c>
       <c r="D397" s="137">
         <v>44700</v>
       </c>
       <c r="E397" s="63" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="F397" s="64">
         <v>50</v>
@@ -12879,14 +12971,14 @@
         <v>397</v>
       </c>
       <c r="B398" s="63" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
       <c r="C398" s="137">
         <v>42860</v>
       </c>
       <c r="D398" s="137"/>
       <c r="E398" s="63" t="s">
-        <v>502</v>
+        <v>521</v>
       </c>
       <c r="F398" s="64">
         <v>25</v>
@@ -12984,16 +13076,16 @@
         <v>402</v>
       </c>
       <c r="B403" s="63" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="C403" s="137" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="D403" s="137">
         <v>44739</v>
       </c>
       <c r="E403" s="63" t="s">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="F403" s="64">
         <v>50</v>
@@ -13091,20 +13183,20 @@
         <v>407</v>
       </c>
       <c r="B408" s="80" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="C408" s="140" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="D408" s="140"/>
       <c r="E408" s="80" t="s">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="F408" s="81">
         <v>50</v>
       </c>
       <c r="G408" s="82" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="H408" s="83">
         <v>1</v>
@@ -13122,20 +13214,20 @@
         <v>408</v>
       </c>
       <c r="B409" s="26" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="C409" s="131" t="s">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="D409" s="131"/>
       <c r="E409" s="26" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
       <c r="F409" s="27">
         <v>50</v>
       </c>
       <c r="G409" s="28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H409" s="29">
         <v>1</v>
@@ -13153,16 +13245,16 @@
     <cfRule type="expression" dxfId="6" priority="15">
       <formula>$K1=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="16">
+    <cfRule type="expression" dxfId="5" priority="18">
       <formula>$M1=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="17">
+    <cfRule type="expression" dxfId="4" priority="19">
       <formula>$L1=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="18">
+    <cfRule type="expression" dxfId="3" priority="16">
       <formula>$J1=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="19">
+    <cfRule type="expression" dxfId="2" priority="17">
       <formula>$I1=1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="20">
@@ -13173,191 +13265,191 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{CCBB4852-3218-4A5A-9F82-13734107D1A6}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{534ECC1D-0892-4461-B64D-2D305C51A02C}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{5036BBC0-9785-4D5E-82F4-1FA743E0B028}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{2C9CB227-1DF7-4C4E-AD28-8188D68A0C1A}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{6D920D39-8DDE-4B90-899D-4C41EBEFA41E}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{6530552A-4E14-469A-86F3-B772FE56FECD}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{A67E3836-79E6-4AEC-AED0-70C48E965A54}"/>
-    <hyperlink ref="E10" r:id="rId8" xr:uid="{AF3FE842-6E58-4197-999F-637086205230}"/>
-    <hyperlink ref="E12" r:id="rId9" xr:uid="{7A43D77A-32FF-4879-A87A-931F6F4C0194}"/>
-    <hyperlink ref="E18" r:id="rId10" xr:uid="{72F7E4B3-5F41-440D-A131-4D285F085EFE}"/>
-    <hyperlink ref="E19" r:id="rId11" xr:uid="{2E65265E-A953-4F81-B155-F8B70A6DEC1D}"/>
-    <hyperlink ref="E22" r:id="rId12" xr:uid="{C0B778C4-27A7-42AF-AA55-7F7CBCE540FF}"/>
-    <hyperlink ref="E29" r:id="rId13" xr:uid="{B159F05C-3E0F-4516-879A-E3A70A2D0C3A}"/>
-    <hyperlink ref="E30" r:id="rId14" xr:uid="{6FA398A7-7805-4699-AF56-D182D790D7A2}"/>
-    <hyperlink ref="E32" r:id="rId15" xr:uid="{D0EAE687-3905-4057-A620-20BE70E718B6}"/>
-    <hyperlink ref="E34" r:id="rId16" xr:uid="{A8265CEF-9759-4E15-B65B-7A300DF4C53D}"/>
-    <hyperlink ref="E43" r:id="rId17" xr:uid="{0F895EAA-4979-4710-A654-FE7144C92EF5}"/>
-    <hyperlink ref="E46" r:id="rId18" xr:uid="{CA3DB689-055E-422E-97C0-E5F676ABD0B1}"/>
-    <hyperlink ref="E50" r:id="rId19" xr:uid="{99DF41A8-41D0-49AC-818F-03BF2C6A273B}"/>
-    <hyperlink ref="E57" r:id="rId20" xr:uid="{FB8C2251-46D3-419F-A0F8-69136E5FE920}"/>
-    <hyperlink ref="E58" r:id="rId21" xr:uid="{B8E45836-C890-41AD-8761-6F081882B090}"/>
-    <hyperlink ref="E62" r:id="rId22" xr:uid="{88C1114A-EDB0-4080-97A7-6F12C26E57BD}"/>
-    <hyperlink ref="E68" r:id="rId23" xr:uid="{EB37F07F-455A-4FC7-A424-B1D41330B9D7}"/>
-    <hyperlink ref="E70" r:id="rId24" xr:uid="{502AD91F-FBEE-49CE-96F5-93C7B908144F}"/>
-    <hyperlink ref="E77" r:id="rId25" xr:uid="{23660218-7478-4647-B2BB-ADAA865F522C}"/>
-    <hyperlink ref="E80" r:id="rId26" xr:uid="{AD71A060-86DB-4782-B6AD-B9A89E665677}"/>
-    <hyperlink ref="E81" r:id="rId27" xr:uid="{1B5295AF-EC73-4A95-B755-445519FA1EF5}"/>
-    <hyperlink ref="E82" r:id="rId28" xr:uid="{A4D8E943-6C20-499E-9F38-2D4F1717EB89}"/>
-    <hyperlink ref="E84" r:id="rId29" xr:uid="{25109370-82C4-4EE0-B1AD-51EEC14ED6BA}"/>
-    <hyperlink ref="E86" r:id="rId30" xr:uid="{DC0A3D40-BA67-43C7-8E1F-BE6998B8AAF8}"/>
-    <hyperlink ref="E88" r:id="rId31" xr:uid="{2BD2EDC8-CE35-4BDA-AD4D-281C84C11204}"/>
-    <hyperlink ref="E90" r:id="rId32" xr:uid="{18DA9472-8626-40D8-9D8F-2D7C5E5B4A16}"/>
-    <hyperlink ref="E111" r:id="rId33" xr:uid="{63EC7EBD-DB0D-4A81-83C9-F514EE110DF8}"/>
-    <hyperlink ref="E114" r:id="rId34" xr:uid="{19CC327F-FE70-492C-9F21-9BCA02BFD054}"/>
-    <hyperlink ref="E117" r:id="rId35" xr:uid="{FA210F05-62B2-49AC-9D80-9577E8B72371}"/>
-    <hyperlink ref="E119" r:id="rId36" xr:uid="{8B80881A-B54D-420C-AA40-92AFB57E186F}"/>
-    <hyperlink ref="E120" r:id="rId37" xr:uid="{BEEA1F59-B0CF-42B1-9E6F-2F4423F46CFC}"/>
-    <hyperlink ref="E121" r:id="rId38" xr:uid="{91B32B06-07CA-4718-870A-AD5E949C7349}"/>
-    <hyperlink ref="E122" r:id="rId39" xr:uid="{FECCBF0A-0ACA-45CD-A7A7-B5C769E90677}"/>
-    <hyperlink ref="E124" r:id="rId40" xr:uid="{C6A70D17-4784-4D90-B93B-74D5172FD346}"/>
-    <hyperlink ref="E125" r:id="rId41" xr:uid="{3E66DBD2-4549-4E2B-B8FB-F9DD71778840}"/>
-    <hyperlink ref="E126" r:id="rId42" xr:uid="{04C8665A-A2DB-4E2A-9996-803136A67455}"/>
-    <hyperlink ref="E127" r:id="rId43" xr:uid="{9C049067-66DC-43D0-AE08-92081B1144EB}"/>
-    <hyperlink ref="E128" r:id="rId44" xr:uid="{B2CC353C-37A7-4375-9A12-6C3E6BC70277}"/>
-    <hyperlink ref="E129" r:id="rId45" xr:uid="{A026B846-531F-492D-A30A-F113F5207EA0}"/>
-    <hyperlink ref="E130" r:id="rId46" xr:uid="{00AF0440-912F-4565-B3EC-F3A9365122B4}"/>
-    <hyperlink ref="E131" r:id="rId47" xr:uid="{FCEBC241-A689-401C-A67C-59A0DF6A2BF8}"/>
-    <hyperlink ref="E132" r:id="rId48" xr:uid="{72FD1F6B-A724-4B28-8E8D-698A93835CC6}"/>
-    <hyperlink ref="E133" r:id="rId49" xr:uid="{836EB1A6-2A7B-4383-81BE-B58FF160BC22}"/>
-    <hyperlink ref="E134" r:id="rId50" xr:uid="{61A4CACC-5313-4981-B6F9-62FE39B7380F}"/>
-    <hyperlink ref="E135" r:id="rId51" xr:uid="{05A4B373-C328-4488-BC9F-AD77ADC27364}"/>
-    <hyperlink ref="E136" r:id="rId52" xr:uid="{349BD03E-9245-4E36-9F5D-005CF0BF0378}"/>
-    <hyperlink ref="E137" r:id="rId53" xr:uid="{47131AD6-2DBB-4126-91F2-F1769CBE417E}"/>
-    <hyperlink ref="E138" r:id="rId54" xr:uid="{82F8C331-F197-4A73-9C6A-CC3D12A8BB63}"/>
-    <hyperlink ref="E139" r:id="rId55" xr:uid="{EEC08DF2-FC5D-4BFC-83BF-FDF8EB11B012}"/>
-    <hyperlink ref="E140" r:id="rId56" xr:uid="{3F0F7E1C-B202-4BD2-BFB8-00CC7D45C7FE}"/>
-    <hyperlink ref="E142" r:id="rId57" xr:uid="{55462BC8-BEC8-4F3A-89B0-48E38E38FC28}"/>
-    <hyperlink ref="E144" r:id="rId58" xr:uid="{D7AD564F-1F1D-40E4-AA23-E7528E361EDB}"/>
-    <hyperlink ref="E147" r:id="rId59" xr:uid="{B3AFADE4-E5E4-4728-A9A9-060170FE458B}"/>
-    <hyperlink ref="E148" r:id="rId60" xr:uid="{E84A952F-6EED-4D57-8B3C-8441E15D6504}"/>
-    <hyperlink ref="E149" r:id="rId61" xr:uid="{53406202-08EB-440F-86D6-C6A2442653E3}"/>
-    <hyperlink ref="E151" r:id="rId62" xr:uid="{74B32F45-BAE8-4CFF-81AC-40EFA9076C4C}"/>
-    <hyperlink ref="E152" r:id="rId63" xr:uid="{912EC21A-FB96-47F1-8207-F38682693097}"/>
-    <hyperlink ref="E153" r:id="rId64" xr:uid="{C548618D-A3FC-4591-8A9A-3FBB683462F9}"/>
-    <hyperlink ref="E154" r:id="rId65" xr:uid="{6AEBC17A-2A7E-4666-AB06-694F8E1AF687}"/>
-    <hyperlink ref="E158" r:id="rId66" xr:uid="{1C9C45D4-C158-44AB-BDA8-49D2A1EEA145}"/>
-    <hyperlink ref="E160" r:id="rId67" xr:uid="{EF4B294B-4B70-43C4-AE16-E27A4EC2E9A9}"/>
-    <hyperlink ref="E163" r:id="rId68" xr:uid="{33605212-5FEC-4D5D-8A91-B7E39250CC4A}"/>
-    <hyperlink ref="E164" r:id="rId69" xr:uid="{BF6E6653-9DC5-4B29-B50D-DBA3FA680AEB}"/>
-    <hyperlink ref="E165" r:id="rId70" xr:uid="{455E705D-639E-4B8D-9C9E-6392FBFAE65A}"/>
-    <hyperlink ref="E166" r:id="rId71" xr:uid="{658FA523-82C1-4033-9871-D9C53E34EE4D}"/>
-    <hyperlink ref="E174" r:id="rId72" xr:uid="{38E6C162-FAF1-4F05-868B-32B94E76C739}"/>
-    <hyperlink ref="E177" r:id="rId73" xr:uid="{D8DEB6AB-A09E-4C47-8A6D-906A3235A39E}"/>
-    <hyperlink ref="E178" r:id="rId74" xr:uid="{11E4AF82-3505-40C4-ADF4-36C397B0DDCA}"/>
-    <hyperlink ref="E179" r:id="rId75" xr:uid="{5DEE4FF9-0F1A-4CDE-9791-BAB008630764}"/>
-    <hyperlink ref="E180" r:id="rId76" xr:uid="{C73D2575-1C1C-49A2-A9B2-2C47851AE1AA}"/>
-    <hyperlink ref="E184" r:id="rId77" xr:uid="{41046CA1-D391-48B2-9B6F-794F5373E0EC}"/>
-    <hyperlink ref="E187" r:id="rId78" xr:uid="{7B113CE4-8B46-49A8-A235-537359325E6B}"/>
-    <hyperlink ref="E188" r:id="rId79" xr:uid="{7C0D28C5-B59F-4B8D-8E9A-6093CA42E011}"/>
-    <hyperlink ref="E193" r:id="rId80" xr:uid="{F80EBC4E-68E6-448A-8B1B-8A2894591A4C}"/>
-    <hyperlink ref="E194" r:id="rId81" xr:uid="{4A3A36AF-2BF8-4F8A-865C-08C4604CA5D1}"/>
-    <hyperlink ref="E196" r:id="rId82" xr:uid="{143729AB-60C3-4E2D-9C97-063F8FD50B36}"/>
-    <hyperlink ref="E198" r:id="rId83" xr:uid="{97B52C6D-8AE2-461D-B27A-49950335480F}"/>
-    <hyperlink ref="E200" r:id="rId84" xr:uid="{A5EDEAD0-5276-4848-8F52-FBD52E643084}"/>
-    <hyperlink ref="E201" r:id="rId85" xr:uid="{87B39FC2-7CF5-4D73-8F34-2014872AC62A}"/>
-    <hyperlink ref="E202" r:id="rId86" xr:uid="{F3BB4C69-D996-45C3-9D48-D13DB4314860}"/>
-    <hyperlink ref="E203" r:id="rId87" xr:uid="{4007EE82-AAFF-46B1-A34E-CFBB1C7F7F2B}"/>
-    <hyperlink ref="E205" r:id="rId88" xr:uid="{325CB5B0-CEEA-486B-B57A-76E5B834693B}"/>
-    <hyperlink ref="E207" r:id="rId89" xr:uid="{E9814BF7-B8CD-4D88-A807-DCD83BB53A0E}"/>
-    <hyperlink ref="E211" r:id="rId90" xr:uid="{97365DCC-DE12-4E47-A9AC-5DB54ACE0D16}"/>
-    <hyperlink ref="E218" r:id="rId91" xr:uid="{76E52574-A630-422B-BE76-1BDDF6961E26}"/>
-    <hyperlink ref="E220" r:id="rId92" xr:uid="{5162A633-D2C9-494D-B126-97DB8B7BA25E}"/>
-    <hyperlink ref="E226" r:id="rId93" xr:uid="{2A39B8D0-FA4B-415E-BA16-580889D40F36}"/>
-    <hyperlink ref="E227" r:id="rId94" xr:uid="{671D36B1-80F2-437F-830E-27FC48A5AA25}"/>
-    <hyperlink ref="E230" r:id="rId95" xr:uid="{4C7F2C6F-000D-4B3D-B5A3-A6FF6CF0390F}"/>
-    <hyperlink ref="E231" r:id="rId96" xr:uid="{50590AFB-EAE4-4EC8-A518-BDFA7777EFA0}"/>
-    <hyperlink ref="E232" r:id="rId97" xr:uid="{22DFA88A-87F5-4DF9-BD3F-FFAD0245A683}"/>
-    <hyperlink ref="E234" r:id="rId98" xr:uid="{0E32E0DB-D9D5-4241-B610-B2439DDD57C1}"/>
-    <hyperlink ref="E235" r:id="rId99" xr:uid="{CD6D9AC3-E5E3-4524-9E6F-C176EB682372}"/>
-    <hyperlink ref="E237" r:id="rId100" xr:uid="{012A8C2F-995C-45CA-B404-A35897091688}"/>
-    <hyperlink ref="E240" r:id="rId101" xr:uid="{4F19A1B6-46E8-450C-8CA4-45DF48DDDE24}"/>
-    <hyperlink ref="E244" r:id="rId102" xr:uid="{D41065BD-2117-46D8-AF4D-E6628402F443}"/>
-    <hyperlink ref="E245" r:id="rId103" xr:uid="{CA480C4A-565B-42F1-A9FF-D6C73F89E9FE}"/>
-    <hyperlink ref="E247" r:id="rId104" xr:uid="{FCBC538D-7105-4F2F-83D8-E835B106E073}"/>
-    <hyperlink ref="E248" r:id="rId105" xr:uid="{4366D4E4-E931-4BA9-935D-0AEF2E22706D}"/>
-    <hyperlink ref="E249" r:id="rId106" xr:uid="{04E85884-47EF-4008-909E-248F042AAB8F}"/>
-    <hyperlink ref="E251" r:id="rId107" xr:uid="{E77D5685-331F-4CE4-AB32-B64E0F4C9860}"/>
-    <hyperlink ref="E252" r:id="rId108" xr:uid="{ABA9F712-6ACE-4757-BCAD-69BAC358F680}"/>
-    <hyperlink ref="E254" r:id="rId109" xr:uid="{3F53ED3C-48DC-41CE-B5E5-3C339E8A1ED2}"/>
-    <hyperlink ref="E255" r:id="rId110" xr:uid="{061B6241-BA13-400F-B4FB-7BA348A50F98}"/>
-    <hyperlink ref="E256" r:id="rId111" xr:uid="{396BE107-FCA3-4855-95F2-9DEE0FB2ACC1}"/>
-    <hyperlink ref="E257" r:id="rId112" xr:uid="{3DDB4E92-401E-4756-B4EB-43AF1E4A3451}"/>
-    <hyperlink ref="E258" r:id="rId113" xr:uid="{FB80C530-AD66-4CBE-9893-55F70CE205C0}"/>
-    <hyperlink ref="E259" r:id="rId114" xr:uid="{DF61B7BE-180B-48D2-ABE0-0D0EC7ACA2D9}"/>
-    <hyperlink ref="E263" r:id="rId115" xr:uid="{45363831-301A-4F12-A761-FC6D0850F17C}"/>
-    <hyperlink ref="E264" r:id="rId116" xr:uid="{71C3E0CB-53DD-41FC-9338-CD5D5CF287B4}"/>
-    <hyperlink ref="E265" r:id="rId117" xr:uid="{7B9F8C38-E064-4B4F-B605-05E67BBBB67F}"/>
-    <hyperlink ref="E266" r:id="rId118" xr:uid="{9F6F2A27-C4ED-486E-990F-29AAB293BF53}"/>
-    <hyperlink ref="E268" r:id="rId119" xr:uid="{EBFF00BD-A3B9-4653-A5C9-7F361F215112}"/>
-    <hyperlink ref="E270" r:id="rId120" xr:uid="{9C38E487-1E3B-4995-B80B-97AAD8F5407C}"/>
-    <hyperlink ref="E274" r:id="rId121" xr:uid="{568D5291-54E4-460D-965E-44E7D2FB9E34}"/>
-    <hyperlink ref="E275" r:id="rId122" xr:uid="{62A866FB-CAC6-4101-B0C7-BC15A59AF9A6}"/>
-    <hyperlink ref="E277" r:id="rId123" xr:uid="{D1B6BF67-A539-4123-85A1-F4F289CEE188}"/>
-    <hyperlink ref="E278" r:id="rId124" xr:uid="{6C79E499-C244-419C-AC54-34BF9C3269CA}"/>
-    <hyperlink ref="E279" r:id="rId125" xr:uid="{E9BED139-A86A-4F7E-9CCA-B9CF1A507F08}"/>
-    <hyperlink ref="E280" r:id="rId126" xr:uid="{BE2074A1-7ABB-46C1-97DF-70D01B0AF92F}"/>
-    <hyperlink ref="E281" r:id="rId127" xr:uid="{7BDCEE7A-9A75-4E96-8F4D-69A60F077A05}"/>
-    <hyperlink ref="E282" r:id="rId128" xr:uid="{2AA1FC8D-00E4-496B-9972-F059D7A78562}"/>
-    <hyperlink ref="E283" r:id="rId129" xr:uid="{1459851B-24F9-4D92-B3B1-CF8EFEB8B4BA}"/>
-    <hyperlink ref="E284" r:id="rId130" xr:uid="{2AF3B383-C2C6-4302-9646-29A3DB4473ED}"/>
-    <hyperlink ref="E285" r:id="rId131" xr:uid="{56952BA4-07D8-4739-99D9-C5915A2FE9F8}"/>
-    <hyperlink ref="E286" r:id="rId132" xr:uid="{EECA1923-386E-4325-B4F2-CC24B9715708}"/>
-    <hyperlink ref="E287" r:id="rId133" xr:uid="{1587E3F7-F4AA-478E-92F0-A5F1E4F8EE7A}"/>
-    <hyperlink ref="E288" r:id="rId134" xr:uid="{21780900-3A20-4940-9770-51997CF5C12A}"/>
-    <hyperlink ref="E289" r:id="rId135" xr:uid="{DAED0081-1CC4-4ED6-A44C-4359464EA019}"/>
-    <hyperlink ref="E290" r:id="rId136" xr:uid="{A45B7FDB-A1CB-4CAE-A0FA-0365B42EFD38}"/>
-    <hyperlink ref="E293" r:id="rId137" xr:uid="{BE0188EF-A35C-4024-9EF5-DE5A65F195CB}"/>
-    <hyperlink ref="E295" r:id="rId138" xr:uid="{B0C419EE-E342-41D6-9D24-9CC97492E7F1}"/>
-    <hyperlink ref="E297" r:id="rId139" xr:uid="{3200B3AF-9304-43DC-94A6-78496D19B777}"/>
-    <hyperlink ref="E298" r:id="rId140" xr:uid="{971862F0-0A70-474B-8100-D0B1E55348A5}"/>
-    <hyperlink ref="E299" r:id="rId141" xr:uid="{47209446-F209-496E-8A02-37BF63DF48F8}"/>
-    <hyperlink ref="E300" r:id="rId142" xr:uid="{4E69A5C8-DFA9-41F6-87A0-51C844FA47DF}"/>
-    <hyperlink ref="E301" r:id="rId143" xr:uid="{38ED78F1-8FA6-4A34-AD0B-5EF47FD51990}"/>
-    <hyperlink ref="E306" r:id="rId144" xr:uid="{3E398E2A-83CE-41F8-97B6-23AA676E4905}"/>
-    <hyperlink ref="E307" r:id="rId145" xr:uid="{C548E4E0-7F89-4D6C-9D4E-AC7CB2FF34CE}"/>
-    <hyperlink ref="E308" r:id="rId146" xr:uid="{2A168661-EF99-4570-85D9-84DD9F2D74CB}"/>
-    <hyperlink ref="E310" r:id="rId147" xr:uid="{F003EDA4-C8F8-468C-9421-AAEDEE21ED40}"/>
-    <hyperlink ref="E313" r:id="rId148" xr:uid="{5CC90980-1C85-4655-A709-AC27947DBA19}"/>
-    <hyperlink ref="E314" r:id="rId149" xr:uid="{30D20D83-9463-485C-B473-C0FAE87C0248}"/>
-    <hyperlink ref="E316" r:id="rId150" xr:uid="{9F2888D6-E25C-402C-B258-8F7338D7EC54}"/>
-    <hyperlink ref="E320" r:id="rId151" xr:uid="{C6572621-3197-48ED-9FD6-8877F28CB656}"/>
-    <hyperlink ref="E321" r:id="rId152" xr:uid="{F054EAA7-DEB0-4B9B-B6D1-43C0DB6FE6BC}"/>
-    <hyperlink ref="E323" r:id="rId153" xr:uid="{0D1BE66D-E81E-4893-AFFB-B6DF2F7643A6}"/>
-    <hyperlink ref="E324" r:id="rId154" xr:uid="{1F372A01-014F-41CD-AFC7-F67F0176ADA9}"/>
-    <hyperlink ref="E326" r:id="rId155" xr:uid="{E7CF5AD2-9D77-4D31-BF64-00791F43C668}"/>
-    <hyperlink ref="E331" r:id="rId156" xr:uid="{F3907625-9D53-4B30-B4CF-BE15C6A6BEBF}"/>
-    <hyperlink ref="E332" r:id="rId157" xr:uid="{39E560ED-5CEE-4408-9E8A-116A5ABE1420}"/>
-    <hyperlink ref="E334" r:id="rId158" xr:uid="{63A9DC4A-61DF-42CA-8EC5-67394E9C80C8}"/>
-    <hyperlink ref="E340" r:id="rId159" xr:uid="{20BBE5F1-6701-4B3C-93FC-B55A53463C40}"/>
-    <hyperlink ref="E342" r:id="rId160" xr:uid="{7D75FAFB-A745-4A52-84A8-51FF9D280681}"/>
-    <hyperlink ref="E343" r:id="rId161" xr:uid="{FB3AC677-DB1B-4916-9820-4E50ECAD1954}"/>
-    <hyperlink ref="E344" r:id="rId162" xr:uid="{B8F4B90B-7622-4770-BCAF-40C459C83CDD}"/>
-    <hyperlink ref="E347" r:id="rId163" xr:uid="{8303AA76-51E5-4FAA-B536-68E73351D1AB}"/>
-    <hyperlink ref="E350" r:id="rId164" xr:uid="{CB58DB2E-5932-4C02-85FD-4A7A2968A2EE}"/>
-    <hyperlink ref="E354" r:id="rId165" xr:uid="{9171D24F-AE0D-4870-A6DF-7DC679CC000F}"/>
-    <hyperlink ref="E356" r:id="rId166" xr:uid="{DCB3CE1B-8E9B-44C1-B925-3310F4FD882E}"/>
-    <hyperlink ref="E359" r:id="rId167" xr:uid="{1D3C0471-BF4C-4961-9861-C0909B018E97}"/>
-    <hyperlink ref="E370" r:id="rId168" xr:uid="{7D220876-B18F-428B-92F7-1F0BE56B70C7}"/>
-    <hyperlink ref="E379" r:id="rId169" xr:uid="{086BE8FB-FA49-4E91-B1B6-EEB580506D10}"/>
-    <hyperlink ref="E380" r:id="rId170" xr:uid="{2A515CA9-B183-47C5-8C38-C9ABDC614357}"/>
-    <hyperlink ref="E382" r:id="rId171" xr:uid="{43B39D29-9A33-43A5-B549-D8A9E8E8DE26}"/>
-    <hyperlink ref="E383" r:id="rId172" xr:uid="{A7ADA4EF-321A-4909-9E9B-9D52EED2CF6D}"/>
-    <hyperlink ref="E384" r:id="rId173" xr:uid="{F2179661-EC91-46F6-B846-5B89AE04DEAC}"/>
-    <hyperlink ref="E388" r:id="rId174" xr:uid="{56A8C64C-3D46-425B-8B0A-65666D1F5988}"/>
-    <hyperlink ref="E390" r:id="rId175" xr:uid="{F9F08291-EB1F-43E6-866A-88D4577AC699}"/>
-    <hyperlink ref="E392" r:id="rId176" xr:uid="{AE8AF0E0-B5A3-4CDA-96F2-0CB467B2C588}"/>
-    <hyperlink ref="E395" r:id="rId177" xr:uid="{677F7AD2-A6FF-462C-AC19-0F8CA71367D1}"/>
-    <hyperlink ref="E397" r:id="rId178" xr:uid="{FEAE482A-2B42-48F6-AE22-BBDC07889F13}"/>
-    <hyperlink ref="E398" r:id="rId179" xr:uid="{703C1237-79C9-46D9-A41F-CC65B197AF2E}"/>
-    <hyperlink ref="E403" r:id="rId180" xr:uid="{CD8A8D8B-FA17-47D2-AD67-C074EAD123B0}"/>
-    <hyperlink ref="E408" r:id="rId181" xr:uid="{C838A12A-458F-46EC-89D5-31249C6D1892}"/>
-    <hyperlink ref="E409" r:id="rId182" xr:uid="{04CCC2AF-0C33-47D2-AFCC-C6EE1413AEA6}"/>
-    <hyperlink ref="E24" r:id="rId183" xr:uid="{247D20B1-9F01-4582-BDC8-87B0A06D929E}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E18" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E19" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E22" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E24" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E29" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E30" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E32" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E34" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E43" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E46" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E50" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E57" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E58" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E62" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E68" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E70" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E77" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E80" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E81" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E82" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E84" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E86" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E88" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E90" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E111" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E114" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E117" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E119" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E120" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E121" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E122" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="E124" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E125" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E126" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E127" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E128" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="E129" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="E130" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="E131" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E132" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="E133" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E134" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="E135" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="E136" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E137" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="E138" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="E139" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="E140" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E142" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="E144" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E147" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="E148" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E149" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="E151" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="E152" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="E153" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E154" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="E158" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="E160" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="E163" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="E164" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="E165" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E166" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="E174" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="E177" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="E178" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="E179" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="E180" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="E184" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="E187" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E188" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="E193" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E194" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E196" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E198" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E200" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="E201" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="E202" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="E203" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="E205" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E207" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="E211" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="E218" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="E220" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="E226" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="E227" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E230" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="E231" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="E232" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="E234" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="E235" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="E237" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="E240" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="E244" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="E245" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="E247" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="E248" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="E249" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="E251" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="E252" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="E254" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="E255" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="E256" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="E257" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="E258" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="E259" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="E263" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="E264" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="E265" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="E266" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="E268" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="E270" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="E274" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="E275" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="E277" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="E278" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="E279" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="E280" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="E281" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="E282" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="E283" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="E284" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="E285" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="E286" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="E287" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="E288" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="E289" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="E290" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="E293" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="E295" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="E297" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="E298" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="E299" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="E300" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="E301" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="E306" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="E307" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="E308" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="E310" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="E313" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="E314" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="E316" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="E320" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="E321" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="E323" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="E324" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="E326" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="E331" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="E332" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="E334" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="E340" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="E342" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="E343" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="E344" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="E347" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="E350" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="E354" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="E356" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="E359" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="E370" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="E379" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="E380" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="E382" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="E383" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="E384" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="E388" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="E390" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="E392" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="E395" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="E397" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="E398" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="E403" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="E408" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="E409" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId184"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0"/>
 </worksheet>
 </file>